--- a/XC-template2.xlsx
+++ b/XC-template2.xlsx
@@ -382,18 +382,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
@@ -430,6 +418,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,23 +608,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="134740224"/>
-        <c:axId val="134770688"/>
+        <c:axId val="118192384"/>
+        <c:axId val="118224000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134740224"/>
+        <c:axId val="118192384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134770688"/>
+        <c:crossAx val="118224000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134770688"/>
+        <c:axId val="118224000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +632,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134740224"/>
+        <c:crossAx val="118192384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -645,7 +645,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -979,15 +979,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="11.28515625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="28" customWidth="1"/>
-    <col min="13" max="16" width="10.5703125" style="21" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="23" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="41.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="11.28515625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="24" customWidth="1"/>
+    <col min="13" max="16" width="10.5703125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="19" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="15">
@@ -1001,613 +1001,613 @@
     <row r="2" spans="1:17" s="4" customFormat="1">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="15.75">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="15.75">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="5" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="8"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17" ht="38.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <f>(-50-9)+12.5</f>
         <v>-46.5</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <v>30.5</v>
       </c>
-      <c r="F5" s="21">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21">
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
         <v>0.52</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="17">
         <v>0.52</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="17">
         <v>115</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="17">
         <v>-171</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="18">
         <v>240</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="17">
         <v>-39</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="17">
         <f>48.08+7+7/12</f>
         <v>55.663333333333334</v>
       </c>
-      <c r="O5" s="21">
-        <v>1</v>
-      </c>
-      <c r="P5" s="21">
+      <c r="O5" s="17">
+        <v>1</v>
+      </c>
+      <c r="P5" s="17">
         <v>0</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <f>(-50-12)+12.5</f>
         <v>-49.5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <f>30.5+8</f>
         <v>38.5</v>
       </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
         <v>0.52</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="17">
         <v>0.52</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <v>115</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="17">
         <v>-171</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="18">
         <v>120</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="17">
         <v>-36</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="17">
         <f>49.58+7+7/12</f>
         <v>57.163333333333334</v>
       </c>
-      <c r="O6" s="21">
-        <v>1</v>
-      </c>
-      <c r="P6" s="21">
+      <c r="O6" s="17">
+        <v>1</v>
+      </c>
+      <c r="P6" s="17">
         <v>0</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>60</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>-46.5</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <f>30.5+8+9+7/12</f>
         <v>48.083333333333336</v>
       </c>
-      <c r="F7" s="26">
-        <v>1</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22">
         <v>0.52</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>0.52</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="22">
         <v>115</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="22">
         <v>-171</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="23">
         <v>0</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="17">
         <f>(-11.5/2)+12.5</f>
         <v>6.75</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="17">
         <v>47.5</v>
       </c>
-      <c r="O7" s="21">
-        <v>1</v>
-      </c>
-      <c r="P7" s="21">
+      <c r="O7" s="17">
+        <v>1</v>
+      </c>
+      <c r="P7" s="17">
         <v>0</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>100</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <f>(-50+9)+12.5</f>
         <v>-28.5</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>32</v>
       </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
         <v>0.52</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="17">
         <v>0.52</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="17">
         <v>115</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="17">
         <v>-105</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="18">
         <v>240</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="17">
         <f>(11.5/2)+12.5</f>
         <v>18.25</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="17">
         <v>47.5</v>
       </c>
-      <c r="O8" s="21">
-        <v>1</v>
-      </c>
-      <c r="P8" s="21">
+      <c r="O8" s="17">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17">
         <v>0</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>900</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <f>(-50+12)+12.5</f>
         <v>-25.5</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>40</v>
       </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
         <v>0.52</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <v>0.52</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="17">
         <v>115</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <v>-105</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="18">
         <v>120</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="17">
         <v>62.5</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="17">
         <f>45.5+13+5/12</f>
         <v>58.916666666666664</v>
       </c>
-      <c r="O9" s="21">
-        <v>1</v>
-      </c>
-      <c r="P9" s="21">
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
+      <c r="P9" s="17">
         <v>0</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>5</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>-28.5</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <f>40+9+7/12</f>
         <v>49.583333333333336</v>
       </c>
-      <c r="F10" s="26">
-        <v>1</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22">
         <v>0.52</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>0.52</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <v>115</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="22">
         <v>-105</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="23">
         <v>0</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>0</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>33</v>
       </c>
-      <c r="F11" s="21">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
         <v>1.2929999999999999</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="17">
         <v>1.2929999999999999</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <v>115</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="17">
         <v>301</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="18">
         <v>240</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>-87.5</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>12.5</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>33</v>
       </c>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
         <v>1.2929999999999999</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="17">
         <v>1.2929999999999999</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <v>115</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="17">
         <v>301</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="18">
         <v>0</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>87.5</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>25</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>33</v>
       </c>
-      <c r="F13" s="26">
-        <v>1</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
         <v>1.2929999999999999</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>1.2929999999999999</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="22">
         <v>115</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="22">
         <v>301</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="23">
         <v>120</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <f>(50-7-7/12)+12.5</f>
         <v>54.916666666666664</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>33.5</v>
       </c>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21">
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
         <v>1.2929999999999999</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="17">
         <v>1.2929999999999999</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="17">
         <v>115</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="17">
         <v>316</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="18">
         <v>120</v>
       </c>
-      <c r="L14" s="21"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <f>(50+7+7/12)+12.5</f>
         <v>70.083333333333343</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>39.5</v>
       </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21">
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
         <v>1.2929999999999999</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="17">
         <v>1.2929999999999999</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="17">
         <v>115</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="17">
         <v>316</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="18">
         <v>240</v>
       </c>
-      <c r="L15" s="21"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>54.916666666666664</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="22">
         <v>45.5</v>
       </c>
-      <c r="F16" s="26">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26">
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22">
         <v>1.2929999999999999</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>1.2929999999999999</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="22">
         <v>115</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="22">
         <v>316</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="23">
         <v>0</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="L17" s="21"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="L18" s="21"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="17">
+      <c r="A27" s="13">
         <f>87.5*2</f>
         <v>175</v>
       </c>
